--- a/Plantilla Tarifario.xlsx
+++ b/Plantilla Tarifario.xlsx
@@ -5,25 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfgalvis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfgalvis\Documents\Proyecto_Tarificador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73888F3D-16CE-4A95-A89D-E4F3EF7C3F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEF947E-F8F9-4B42-A9F3-39BA0EC0F7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarifario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tarifario!$B$3:$B$3</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Destino</t>
   </si>
@@ -35,6 +32,12 @@
   </si>
   <si>
     <t>Tarifa Recomentada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cali </t>
   </si>
 </sst>
 </file>
@@ -512,54 +515,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F4"/>
+  <dimension ref="B1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plantilla Tarifario.xlsx
+++ b/Plantilla Tarifario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfgalvis\Documents\Proyecto_Tarificador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEF947E-F8F9-4B42-A9F3-39BA0EC0F7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C482CA85-E821-4B32-8469-4AA62E7321BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Destino</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>Tarifa Recomentada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogota </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cali </t>
   </si>
 </sst>
 </file>
@@ -518,7 +512,7 @@
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,12 +549,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
     </row>

--- a/Plantilla Tarifario.xlsx
+++ b/Plantilla Tarifario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfgalvis\Documents\Proyecto_Tarificador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C482CA85-E821-4B32-8469-4AA62E7321BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EC2AB2-71EC-4399-9D27-63CF01C09DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -172,7 +174,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -512,7 +514,7 @@
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +558,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plantilla Tarifario.xlsx
+++ b/Plantilla Tarifario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfgalvis\Documents\Proyecto_Tarificador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EC2AB2-71EC-4399-9D27-63CF01C09DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2BBDB46-A08F-47D5-A42F-8A88408DA229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Destino</t>
+    <t>ORIGEN</t>
   </si>
   <si>
-    <t>SiceTac</t>
+    <t>DESTINO</t>
   </si>
   <si>
-    <t>Origen</t>
+    <t>TARIFA RECOMENDADA</t>
   </si>
   <si>
-    <t>Tarifa Recomentada</t>
+    <t>TARIFA SICETAC</t>
   </si>
 </sst>
 </file>
@@ -41,14 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,21 +51,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,12 +67,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -94,91 +98,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,50 +459,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="26.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
